--- a/df_metricas.xlsx
+++ b/df_metricas.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="20">
   <si>
     <t>positivo</t>
   </si>
@@ -75,6 +75,15 @@
   </si>
   <si>
     <t>ponderacion_promedio_f1-score</t>
+  </si>
+  <si>
+    <t>proporción clases</t>
+  </si>
+  <si>
+    <t xml:space="preserve">positiva </t>
+  </si>
+  <si>
+    <t>negativa</t>
   </si>
 </sst>
 </file>
@@ -392,10 +401,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27:XFD27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -404,7 +413,7 @@
     <col min="8" max="8" width="19.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C1" t="s">
         <v>15</v>
       </c>
@@ -423,8 +432,11 @@
       <c r="H1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C2" t="s">
         <v>2</v>
       </c>
@@ -443,8 +455,14 @@
       <c r="H2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -469,8 +487,14 @@
       <c r="H3">
         <v>884</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I3">
+        <v>648</v>
+      </c>
+      <c r="J3">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -495,8 +519,14 @@
       <c r="H4">
         <v>403</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I4">
+        <v>801</v>
+      </c>
+      <c r="J4">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -521,8 +551,14 @@
       <c r="H5">
         <v>70</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I5">
+        <v>520</v>
+      </c>
+      <c r="J5">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -547,8 +583,14 @@
       <c r="H6">
         <v>979</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I6">
+        <v>757</v>
+      </c>
+      <c r="J6">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -573,8 +615,14 @@
       <c r="H7">
         <v>661</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I7">
+        <v>18</v>
+      </c>
+      <c r="J7">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -599,8 +647,14 @@
       <c r="H8">
         <v>314</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I8">
+        <v>85</v>
+      </c>
+      <c r="J8">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -625,8 +679,14 @@
       <c r="H9">
         <v>66</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I9">
+        <v>163</v>
+      </c>
+      <c r="J9">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -651,8 +711,14 @@
       <c r="H10">
         <v>597</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I10">
+        <v>185</v>
+      </c>
+      <c r="J10">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -677,8 +743,14 @@
       <c r="H11">
         <v>441</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I11">
+        <v>699</v>
+      </c>
+      <c r="J11">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -703,8 +775,14 @@
       <c r="H12">
         <v>748</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I12">
+        <v>200</v>
+      </c>
+      <c r="J12">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -729,8 +807,14 @@
       <c r="H13">
         <v>242</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I13">
+        <v>301</v>
+      </c>
+      <c r="J13">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -755,8 +839,14 @@
       <c r="H14">
         <v>362</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I14">
+        <v>132</v>
+      </c>
+      <c r="J14">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -781,8 +871,14 @@
       <c r="H15">
         <v>461</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I15">
+        <v>52</v>
+      </c>
+      <c r="J15">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>12</v>
       </c>
@@ -807,8 +903,14 @@
       <c r="H16">
         <v>268</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I16">
+        <v>165</v>
+      </c>
+      <c r="J16">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>12</v>
       </c>
@@ -833,8 +935,14 @@
       <c r="H17">
         <v>577</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I17">
+        <v>571</v>
+      </c>
+      <c r="J17">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>12</v>
       </c>
@@ -859,8 +967,14 @@
       <c r="H18">
         <v>823</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I18">
+        <v>351</v>
+      </c>
+      <c r="J18">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>13</v>
       </c>
@@ -885,8 +999,14 @@
       <c r="H19">
         <v>725</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I19">
+        <v>292</v>
+      </c>
+      <c r="J19">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>13</v>
       </c>
@@ -911,8 +1031,14 @@
       <c r="H20">
         <v>674</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I20">
+        <v>434</v>
+      </c>
+      <c r="J20">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>13</v>
       </c>
@@ -937,8 +1063,14 @@
       <c r="H21">
         <v>956</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I21">
+        <v>292</v>
+      </c>
+      <c r="J21">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>13</v>
       </c>
@@ -963,8 +1095,14 @@
       <c r="H22">
         <v>455</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I22">
+        <v>39</v>
+      </c>
+      <c r="J22">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>14</v>
       </c>
@@ -989,8 +1127,14 @@
       <c r="H23">
         <v>705</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I23">
+        <v>150</v>
+      </c>
+      <c r="J23">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>14</v>
       </c>
@@ -1015,8 +1159,14 @@
       <c r="H24">
         <v>808</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I24">
+        <v>982</v>
+      </c>
+      <c r="J24">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>14</v>
       </c>
@@ -1041,8 +1191,14 @@
       <c r="H25">
         <v>941</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I25">
+        <v>389</v>
+      </c>
+      <c r="J25">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>14</v>
       </c>
@@ -1066,6 +1222,12 @@
       </c>
       <c r="H26">
         <v>184</v>
+      </c>
+      <c r="I26">
+        <v>246</v>
+      </c>
+      <c r="J26">
+        <v>929</v>
       </c>
     </row>
   </sheetData>
